--- a/game_excel/mission.xlsx
+++ b/game_excel/mission.xlsx
@@ -280,14 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>56031,20,3,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56031,20,3,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,50000,3,50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +447,14 @@
   </si>
   <si>
     <t>10015,1,11015,1</t>
+  </si>
+  <si>
+    <t>53033,20,3,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53033,20,3,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -867,8 +867,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87:K97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="A17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1464,7 +1464,7 @@
         <v>21002</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -1496,7 +1496,7 @@
         <v>21003</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -1528,7 +1528,7 @@
         <v>21004</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -1592,7 +1592,7 @@
         <v>21006</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -1624,7 +1624,7 @@
         <v>21007</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -1656,7 +1656,7 @@
         <v>21008</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -1688,7 +1688,7 @@
         <v>21009</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:11">
@@ -1720,7 +1720,7 @@
         <v>21010</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -1780,7 +1780,7 @@
         <v>21022</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -1844,7 +1844,7 @@
         <v>21024</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -1876,7 +1876,7 @@
         <v>21025</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -1908,7 +1908,7 @@
         <v>21026</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -1940,7 +1940,7 @@
         <v>21027</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -1972,7 +1972,7 @@
         <v>21028</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -2004,7 +2004,7 @@
         <v>21029</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -2036,7 +2036,7 @@
         <v>21030</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -2470,7 +2470,7 @@
         <v>21052</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:11">
@@ -2500,7 +2500,7 @@
         <v>21053</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -2530,7 +2530,7 @@
         <v>21054</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="2:11">
@@ -2560,7 +2560,7 @@
         <v>21055</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -2590,7 +2590,7 @@
         <v>21056</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -2646,7 +2646,7 @@
         <v>21062</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="2:11">
@@ -2676,7 +2676,7 @@
         <v>21063</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="2:11">
@@ -2706,7 +2706,7 @@
         <v>21064</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -2736,7 +2736,7 @@
         <v>21065</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -2766,7 +2766,7 @@
         <v>21066</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -2796,7 +2796,7 @@
         <v>21067</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="2:11">
@@ -2852,7 +2852,7 @@
         <v>21072</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -2882,7 +2882,7 @@
         <v>21073</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -2912,7 +2912,7 @@
         <v>21074</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -2942,7 +2942,7 @@
         <v>21075</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -2998,7 +2998,7 @@
         <v>21082</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -3028,7 +3028,7 @@
         <v>21083</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -3058,7 +3058,7 @@
         <v>21084</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -3088,7 +3088,7 @@
         <v>21085</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -3118,7 +3118,7 @@
         <v>21086</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="2:11">
@@ -3148,7 +3148,7 @@
         <v>21087</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -3178,7 +3178,7 @@
         <v>21088</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -3208,7 +3208,7 @@
         <v>21089</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -3238,7 +3238,7 @@
         <v>21090</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="2:11">
@@ -3294,7 +3294,7 @@
         <v>21152</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="2:11">
@@ -3324,7 +3324,7 @@
         <v>21153</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="2:11">
@@ -3354,7 +3354,7 @@
         <v>21154</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="2:11" ht="12.75" customHeight="1">
@@ -3384,7 +3384,7 @@
         <v>21155</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="2:11">
@@ -3414,7 +3414,7 @@
         <v>21156</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="2:11">
@@ -3444,7 +3444,7 @@
         <v>21157</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="2:11">
@@ -3474,7 +3474,7 @@
         <v>21158</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="2:11">
@@ -3504,7 +3504,7 @@
         <v>21159</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="2:11">
@@ -3534,7 +3534,7 @@
         <v>21160</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="2:11">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="2:11">
@@ -3590,7 +3590,7 @@
         <v>21172</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="2:11">
@@ -3620,7 +3620,7 @@
         <v>21173</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="2:11">
@@ -3650,7 +3650,7 @@
         <v>21174</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="2:11">
@@ -3680,7 +3680,7 @@
         <v>21175</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -3709,7 +3709,7 @@
         <v>21176</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="2:11">
@@ -3738,7 +3738,7 @@
         <v>21177</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="2:11">
@@ -3767,7 +3767,7 @@
         <v>21178</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="2:11">
@@ -3796,7 +3796,7 @@
         <v>21179</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="2:11">
@@ -3825,7 +3825,7 @@
         <v>21180</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="2:11">
@@ -3854,7 +3854,7 @@
         <v>21181</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="2:11">
@@ -3880,7 +3880,7 @@
         <v>21180</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
